--- a/biology/Écologie/Biomagnification/Biomagnification.xlsx
+++ b/biology/Écologie/Biomagnification/Biomagnification.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La biomagnification (ou bioamplification) décrit le processus par lequel les taux de certaines substances croissent à chaque stade du réseau trophique (chaîne alimentaire). 
 Cette notion entre dans le cadre plus global de la bioconcentration, terme recouvrant les phénomènes amenant une matrice biologique (biocénose) à être plus contaminée que son environnement (biotope).
-L'évaluation environnementale, toxicologique et écotoxicologique doivent tenir compte du fait que les facteurs de bioconcentration varient beaucoup selon les espèces[1] et d'autre part du fait que chez de nombreuses espèces, la capacité de bioamplification est le plus souvent d'autant plus importante que l'élément bioconcentré est rare dans l'environnement. Quand il est bioaccumulable, le risque qu'un polluant soit bioconcentré n'est donc pas du tout lié à l'importance quantitative de sa présence dans l'eau [1]. Il y a le plus souvent une relation inverse entre les facteurs de bioconcentration (FBC) et l'exposition d'un animal ou d'une plante à un élément (polluant ou oligoélément)[2].
+L'évaluation environnementale, toxicologique et écotoxicologique doivent tenir compte du fait que les facteurs de bioconcentration varient beaucoup selon les espèces et d'autre part du fait que chez de nombreuses espèces, la capacité de bioamplification est le plus souvent d'autant plus importante que l'élément bioconcentré est rare dans l'environnement. Quand il est bioaccumulable, le risque qu'un polluant soit bioconcentré n'est donc pas du tout lié à l'importance quantitative de sa présence dans l'eau . Il y a le plus souvent une relation inverse entre les facteurs de bioconcentration (FBC) et l'exposition d'un animal ou d'une plante à un élément (polluant ou oligoélément).
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Définition approfondie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La biomagnification traduit le croisement de deux processus :
 1- La bioaccumulation permise par les relations symbiotiques et/ou de type proies – prédateurs et qui traduit la différence entre la contamination d'un individu et sa capacité à dégrader/évacuer le contaminant en question. 
@@ -552,7 +566,9 @@
           <t>Terminologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Biomagnification est un anglicisme, auquel on peut préférer le mot bioamplification.
 </t>
